--- a/hghghg.xlsx
+++ b/hghghg.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ENGstudent\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thepul.ginige\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C36E4ED7-FB78-48E1-8AAB-888D4EAE92C5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7CC7C1-1E66-4EB7-96C1-461BAE8B787E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E9992364-4736-4CBE-8F3B-A67C82ADD1A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1399,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1F231A-18B1-4A31-BCCC-D247C221246A}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1516,6 +1521,14 @@
         <v>262</v>
       </c>
     </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>520</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
